--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44071,6 +44071,41 @@
         <v>48300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1570000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44106,6 +44106,41 @@
         <v>1570000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>30600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44141,6 +44141,41 @@
         <v>30600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44176,6 +44176,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1827500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44211,6 +44211,41 @@
         <v>1827500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>42600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44246,6 +44246,43 @@
         <v>42600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44283,6 +44283,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44320,6 +44320,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>492900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44355,6 +44355,43 @@
         <v>492900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44392,6 +44392,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44427,6 +44427,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>527400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44462,6 +44462,41 @@
         <v>527400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1119700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44497,6 +44497,76 @@
         <v>1119700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>255100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44567,6 +44567,76 @@
         <v>255100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1422300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>8900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44637,6 +44637,41 @@
         <v>8900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>310300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44672,6 +44672,41 @@
         <v>310300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1445400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44707,6 +44707,41 @@
         <v>1445400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>223600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44742,6 +44742,41 @@
         <v>223600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44777,6 +44777,76 @@
         <v>5200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>395000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>212100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44847,6 +44847,41 @@
         <v>212100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44882,6 +44882,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1692200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2092"/>
+  <dimension ref="A1:I2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74702,6 +74702,41 @@
         <v>1692200</v>
       </c>
     </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2093" t="n">
+        <v>11100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2093"/>
+  <dimension ref="A1:I2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74737,6 +74737,41 @@
         <v>11100</v>
       </c>
     </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2094" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2094" t="n">
+        <v>212000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2094"/>
+  <dimension ref="A1:I2095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74772,6 +74772,41 @@
         <v>212000</v>
       </c>
     </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2095" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2095" t="n">
+        <v>1759500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2095"/>
+  <dimension ref="A1:I2096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74807,6 +74807,41 @@
         <v>1759500</v>
       </c>
     </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2096" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2096" t="n">
+        <v>207900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2096"/>
+  <dimension ref="A1:I2097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74842,6 +74842,41 @@
         <v>207900</v>
       </c>
     </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2097" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2097"/>
+  <dimension ref="A1:I2098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74877,6 +74877,41 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2098" t="n">
+        <v>1724000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2098"/>
+  <dimension ref="A1:I2099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74912,6 +74912,41 @@
         <v>1724000</v>
       </c>
     </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2099" t="n">
+        <v>190000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2099"/>
+  <dimension ref="A1:I2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74947,6 +74947,41 @@
         <v>190000</v>
       </c>
     </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>1199800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74982,6 +74982,41 @@
         <v>1199800</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2101" t="n">
+        <v>753700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75017,6 +75017,41 @@
         <v>753700</v>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>405200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2102"/>
+  <dimension ref="A1:I2103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75052,6 +75052,41 @@
         <v>405200</v>
       </c>
     </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>1432800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2103"/>
+  <dimension ref="A1:I2104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75087,6 +75087,41 @@
         <v>1432800</v>
       </c>
     </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>331400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2104"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75122,6 +75122,43 @@
         <v>331400</v>
       </c>
     </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75159,6 +75159,41 @@
         </is>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>1441800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6637.xlsx
+++ b/data/6637.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2106"/>
+  <dimension ref="A1:I2107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75194,6 +75194,41 @@
         <v>1441800</v>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>PNEPCB</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>336900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
